--- a/public/agents.xlsx
+++ b/public/agents.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -440,16 +440,16 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ahmed</t>
+          <t>naleynni</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ahmed@exemple.com</t>
+          <t>naleyni@exemple.com</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -459,40 +459,100 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>B18</t>
+          <t>B17</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Président</t>
+          <t>Membre</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ba</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ba@exemple.com</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>B17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Membre</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ahmed</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ahmed@exemple.com</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>B18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Président</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
         <v>2</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>moussa</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>moussa@exemple.com</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>1234</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>B18</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Vice-Président</t>
         </is>

--- a/public/agents.xlsx
+++ b/public/agents.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -558,6 +558,36 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>moctar</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>moctar@exemple.com</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>B19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Vice-Président</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
